--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT064-002 - Setup Periode Harian  - Batalkan Verifikasi.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT064-002 - Setup Periode Harian  - Batalkan Verifikasi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E575DBF2-A869-4432-A82C-09476C0A3962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7BDFB4-8FBC-4D9A-8446-058CEBD51954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3645" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKAKT064-002" sheetId="2" r:id="rId1"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +650,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="10">
-        <v>20230505</v>
+        <v>20240907</v>
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="6">
